--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H2">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I2">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J2">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.419829666666666</v>
+        <v>8.119312000000001</v>
       </c>
       <c r="N2">
-        <v>16.259489</v>
+        <v>24.357936</v>
       </c>
       <c r="O2">
-        <v>0.5710334161275863</v>
+        <v>0.6660224804915575</v>
       </c>
       <c r="P2">
-        <v>0.5710334161275863</v>
+        <v>0.6660224804915574</v>
       </c>
       <c r="Q2">
-        <v>146.9307060575372</v>
+        <v>218.6488284662614</v>
       </c>
       <c r="R2">
-        <v>1322.376354517835</v>
+        <v>1967.839456196352</v>
       </c>
       <c r="S2">
-        <v>0.5301701197888457</v>
+        <v>0.6180655179889445</v>
       </c>
       <c r="T2">
-        <v>0.5301701197888457</v>
+        <v>0.6180655179889444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H3">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I3">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J3">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.979085999999999</v>
       </c>
       <c r="O3">
-        <v>0.350465600020454</v>
+        <v>0.2728595563580828</v>
       </c>
       <c r="P3">
-        <v>0.3504656000204539</v>
+        <v>0.2728595563580827</v>
       </c>
       <c r="Q3">
-        <v>90.17713605814332</v>
+        <v>89.57719008146132</v>
       </c>
       <c r="R3">
-        <v>811.5942245232899</v>
+        <v>806.1947107331519</v>
       </c>
       <c r="S3">
-        <v>0.3253861926413059</v>
+        <v>0.253212298350986</v>
       </c>
       <c r="T3">
-        <v>0.3253861926413057</v>
+        <v>0.253212298350986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H4">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I4">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J4">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.235221</v>
       </c>
       <c r="O4">
-        <v>0.07850098385195992</v>
+        <v>0.06111796315035969</v>
       </c>
       <c r="P4">
-        <v>0.0785009838519599</v>
+        <v>0.06111796315035968</v>
       </c>
       <c r="Q4">
-        <v>20.19882664975722</v>
+        <v>20.06444441816356</v>
       </c>
       <c r="R4">
-        <v>181.789439847815</v>
+        <v>180.579999763472</v>
       </c>
       <c r="S4">
-        <v>0.07288343350301744</v>
+        <v>0.05671716294782803</v>
       </c>
       <c r="T4">
-        <v>0.07288343350301743</v>
+        <v>0.05671716294782802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.57244</v>
       </c>
       <c r="I5">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J5">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.419829666666666</v>
+        <v>8.119312000000001</v>
       </c>
       <c r="N5">
-        <v>16.259489</v>
+        <v>24.357936</v>
       </c>
       <c r="O5">
-        <v>0.5710334161275863</v>
+        <v>0.6660224804915575</v>
       </c>
       <c r="P5">
-        <v>0.5710334161275863</v>
+        <v>0.6660224804915574</v>
       </c>
       <c r="Q5">
-        <v>6.454005431462221</v>
+        <v>9.668584987093334</v>
       </c>
       <c r="R5">
-        <v>58.08604888315999</v>
+        <v>87.01726488384</v>
       </c>
       <c r="S5">
-        <v>0.02328799013173094</v>
+        <v>0.0273306700529158</v>
       </c>
       <c r="T5">
-        <v>0.02328799013173094</v>
+        <v>0.0273306700529158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.57244</v>
       </c>
       <c r="I6">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J6">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.979085999999999</v>
       </c>
       <c r="O6">
-        <v>0.350465600020454</v>
+        <v>0.2728595563580828</v>
       </c>
       <c r="P6">
-        <v>0.3504656000204539</v>
+        <v>0.2728595563580827</v>
       </c>
       <c r="Q6">
         <v>3.961076221093333</v>
@@ -818,10 +818,10 @@
         <v>35.64968598983999</v>
       </c>
       <c r="S6">
-        <v>0.01429275276066145</v>
+        <v>0.01119697115944764</v>
       </c>
       <c r="T6">
-        <v>0.01429275276066144</v>
+        <v>0.01119697115944763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.57244</v>
       </c>
       <c r="I7">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J7">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.235221</v>
       </c>
       <c r="O7">
-        <v>0.07850098385195992</v>
+        <v>0.06111796315035969</v>
       </c>
       <c r="P7">
-        <v>0.0785009838519599</v>
+        <v>0.06111796315035968</v>
       </c>
       <c r="Q7">
         <v>0.8872436565822223</v>
@@ -880,10 +880,10 @@
         <v>7.98519290924</v>
       </c>
       <c r="S7">
-        <v>0.003201441606820349</v>
+        <v>0.002508015771383442</v>
       </c>
       <c r="T7">
-        <v>0.003201441606820348</v>
+        <v>0.002508015771383442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H8">
         <v>2.696099</v>
       </c>
       <c r="I8">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J8">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.419829666666666</v>
+        <v>8.119312000000001</v>
       </c>
       <c r="N8">
-        <v>16.259489</v>
+        <v>24.357936</v>
       </c>
       <c r="O8">
-        <v>0.5710334161275863</v>
+        <v>0.6660224804915575</v>
       </c>
       <c r="P8">
-        <v>0.5710334161275863</v>
+        <v>0.6660224804915574</v>
       </c>
       <c r="Q8">
-        <v>4.870799114823444</v>
+        <v>7.296822987962667</v>
       </c>
       <c r="R8">
-        <v>43.837192033411</v>
+        <v>65.67140689166401</v>
       </c>
       <c r="S8">
-        <v>0.01757530620700968</v>
+        <v>0.02062629244969719</v>
       </c>
       <c r="T8">
-        <v>0.01757530620700968</v>
+        <v>0.02062629244969719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H9">
         <v>2.696099</v>
       </c>
       <c r="I9">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J9">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.979085999999999</v>
       </c>
       <c r="O9">
-        <v>0.350465600020454</v>
+        <v>0.2728595563580828</v>
       </c>
       <c r="P9">
-        <v>0.3504656000204539</v>
+        <v>0.2728595563580827</v>
       </c>
       <c r="Q9">
-        <v>2.989400420612667</v>
+        <v>2.989400420612666</v>
       </c>
       <c r="R9">
         <v>26.904603785514</v>
       </c>
       <c r="S9">
-        <v>0.01078665461848669</v>
+        <v>0.008450286847649115</v>
       </c>
       <c r="T9">
-        <v>0.01078665461848668</v>
+        <v>0.008450286847649115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H10">
         <v>2.696099</v>
       </c>
       <c r="I10">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J10">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>2.235221</v>
       </c>
       <c r="O10">
-        <v>0.07850098385195992</v>
+        <v>0.06111796315035969</v>
       </c>
       <c r="P10">
-        <v>0.0785009838519599</v>
+        <v>0.06111796315035968</v>
       </c>
       <c r="Q10">
-        <v>0.6695974558754446</v>
+        <v>0.6695974558754444</v>
       </c>
       <c r="R10">
-        <v>6.026377102879001</v>
+        <v>6.026377102879</v>
       </c>
       <c r="S10">
-        <v>0.002416108742122117</v>
+        <v>0.001892784431148214</v>
       </c>
       <c r="T10">
-        <v>0.002416108742122117</v>
+        <v>0.001892784431148214</v>
       </c>
     </row>
   </sheetData>
